--- a/Absentee_report.xlsx
+++ b/Absentee_report.xlsx
@@ -260,14 +260,14 @@
       <c r="B4" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000002</t>
+            <t xml:space="preserve">10000001</t>
           </r>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD.ZAKARIA KISAR</t>
+            <t xml:space="preserve">MD.TARIQUL ISLAM</t>
           </r>
         </is>
       </c>
@@ -286,14 +286,14 @@
       <c r="B5" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000004</t>
+            <t xml:space="preserve">10000002</t>
           </r>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. RAJIB ISLAM</t>
+            <t xml:space="preserve">MD.ZAKARIA KISAR</t>
           </r>
         </is>
       </c>
@@ -312,14 +312,14 @@
       <c r="B6" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000005</t>
+            <t xml:space="preserve">10000003</t>
           </r>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD.FAZLA RABBY</t>
+            <t xml:space="preserve">ASHRAFUL ISLAM</t>
           </r>
         </is>
       </c>
@@ -338,14 +338,14 @@
       <c r="B7" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000006</t>
+            <t xml:space="preserve">10000004</t>
           </r>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. MAINUL ISLAM</t>
+            <t xml:space="preserve">MD. RAJIB ISLAM</t>
           </r>
         </is>
       </c>
@@ -364,14 +364,14 @@
       <c r="B8" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000007</t>
+            <t xml:space="preserve">10000005</t>
           </r>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. SAHINUR RAHMAN </t>
+            <t xml:space="preserve">MD.FAZLA RABBY</t>
           </r>
         </is>
       </c>
@@ -390,14 +390,14 @@
       <c r="B9" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000008</t>
+            <t xml:space="preserve">10000006</t>
           </r>
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SHANGKAR DAS JOY</t>
+            <t xml:space="preserve">MD. MAINUL ISLAM</t>
           </r>
         </is>
       </c>
@@ -416,14 +416,14 @@
       <c r="B10" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000009</t>
+            <t xml:space="preserve">10000007</t>
           </r>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">REZAUL KARIM</t>
+            <t xml:space="preserve">MD. SAHINUR RAHMAN </t>
           </r>
         </is>
       </c>
@@ -442,14 +442,14 @@
       <c r="B11" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000010</t>
+            <t xml:space="preserve">10000008</t>
           </r>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. SHAKIL AHAMMED</t>
+            <t xml:space="preserve">SHANGKAR DAS JOY</t>
           </r>
         </is>
       </c>
@@ -468,14 +468,14 @@
       <c r="B12" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000011</t>
+            <t xml:space="preserve">10000009</t>
           </r>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HASNAT JAHAN</t>
+            <t xml:space="preserve">REZAUL KARIM</t>
           </r>
         </is>
       </c>
@@ -494,14 +494,14 @@
       <c r="B13" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000012</t>
+            <t xml:space="preserve">10000010</t>
           </r>
         </is>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BAKUL KUMAR RAY</t>
+            <t xml:space="preserve">MD. SHAKIL AHAMMED</t>
           </r>
         </is>
       </c>
@@ -520,14 +520,14 @@
       <c r="B14" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000013</t>
+            <t xml:space="preserve">10000011</t>
           </r>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">GOPAL SUTRADHAR</t>
+            <t xml:space="preserve">HASNAT JAHAN</t>
           </r>
         </is>
       </c>
@@ -546,14 +546,14 @@
       <c r="B15" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000014</t>
+            <t xml:space="preserve">10000012</t>
           </r>
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">TANVIR ISLAM</t>
+            <t xml:space="preserve">BAKUL KUMAR RAY</t>
           </r>
         </is>
       </c>
@@ -572,14 +572,14 @@
       <c r="B16" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000015</t>
+            <t xml:space="preserve">10000013</t>
           </r>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. RABIUL ISLAM</t>
+            <t xml:space="preserve">GOPAL SUTRADHAR</t>
           </r>
         </is>
       </c>
@@ -598,14 +598,14 @@
       <c r="B17" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000016</t>
+            <t xml:space="preserve">10000014</t>
           </r>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. ILIAS</t>
+            <t xml:space="preserve">TANVIR ISLAM</t>
           </r>
         </is>
       </c>
@@ -624,14 +624,14 @@
       <c r="B18" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000017</t>
+            <t xml:space="preserve">10000015</t>
           </r>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. ANOWARUL ISLAM</t>
+            <t xml:space="preserve">MD. RABIUL ISLAM</t>
           </r>
         </is>
       </c>
@@ -650,14 +650,14 @@
       <c r="B19" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000018</t>
+            <t xml:space="preserve">10000016</t>
           </r>
         </is>
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HASAN TAREK</t>
+            <t xml:space="preserve">MD. ILIAS</t>
           </r>
         </is>
       </c>
@@ -676,14 +676,14 @@
       <c r="B20" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000019</t>
+            <t xml:space="preserve">10000017</t>
           </r>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SERAJUL ISLAM</t>
+            <t xml:space="preserve">MD. ANOWARUL ISLAM</t>
           </r>
         </is>
       </c>
@@ -702,14 +702,14 @@
       <c r="B21" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000020</t>
+            <t xml:space="preserve">10000018</t>
           </r>
         </is>
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. RAJIB HOSSAIN</t>
+            <t xml:space="preserve">HASAN TAREK</t>
           </r>
         </is>
       </c>
@@ -728,14 +728,14 @@
       <c r="B22" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000021</t>
+            <t xml:space="preserve">10000019</t>
           </r>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MANJUR ALAM</t>
+            <t xml:space="preserve">SERAJUL ISLAM</t>
           </r>
         </is>
       </c>
@@ -754,14 +754,14 @@
       <c r="B23" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000022</t>
+            <t xml:space="preserve">10000020</t>
           </r>
         </is>
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SHARIF MD. ISMAIL</t>
+            <t xml:space="preserve">MD. RAJIB HOSSAIN</t>
           </r>
         </is>
       </c>
@@ -780,14 +780,14 @@
       <c r="B24" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000023</t>
+            <t xml:space="preserve">10000021</t>
           </r>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SOHIDUL ISLAM</t>
+            <t xml:space="preserve">MANJUR ALAM</t>
           </r>
         </is>
       </c>
@@ -806,14 +806,14 @@
       <c r="B25" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000024</t>
+            <t xml:space="preserve">10000022</t>
           </r>
         </is>
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BISHWANATH SARKER</t>
+            <t xml:space="preserve">SHARIF MD. ISMAIL</t>
           </r>
         </is>
       </c>
@@ -832,14 +832,14 @@
       <c r="B26" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000025</t>
+            <t xml:space="preserve">10000023</t>
           </r>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">JAHID HASAN</t>
+            <t xml:space="preserve">SOHIDUL ISLAM</t>
           </r>
         </is>
       </c>
@@ -858,14 +858,14 @@
       <c r="B27" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000026</t>
+            <t xml:space="preserve">10000024</t>
           </r>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. MINHAJUL ISLAM</t>
+            <t xml:space="preserve">BISHWANATH SARKER</t>
           </r>
         </is>
       </c>
@@ -884,14 +884,14 @@
       <c r="B28" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000027</t>
+            <t xml:space="preserve">10000025</t>
           </r>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD.MOFAZZOL HOSSAN MASUD</t>
+            <t xml:space="preserve">JAHID HASAN</t>
           </r>
         </is>
       </c>
@@ -910,14 +910,14 @@
       <c r="B29" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000028</t>
+            <t xml:space="preserve">10000026</t>
           </r>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. ABU SAYED</t>
+            <t xml:space="preserve">MD. MINHAJUL ISLAM</t>
           </r>
         </is>
       </c>
@@ -936,14 +936,14 @@
       <c r="B30" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000029</t>
+            <t xml:space="preserve">10000027</t>
           </r>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. IMRUL KAYAS ROBEL</t>
+            <t xml:space="preserve">MD.MOFAZZOL HOSSAN MASUD</t>
           </r>
         </is>
       </c>
@@ -962,14 +962,14 @@
       <c r="B31" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000030</t>
+            <t xml:space="preserve">10000028</t>
           </r>
         </is>
       </c>
       <c r="C31" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MILTON CHAKMA</t>
+            <t xml:space="preserve">MD. ABU SAYED</t>
           </r>
         </is>
       </c>
@@ -988,14 +988,14 @@
       <c r="B32" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000031</t>
+            <t xml:space="preserve">10000029</t>
           </r>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. TOUSIF RAHMAN</t>
+            <t xml:space="preserve">MD. IMRUL KAYAS ROBEL</t>
           </r>
         </is>
       </c>
@@ -1014,14 +1014,14 @@
       <c r="B33" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000032</t>
+            <t xml:space="preserve">10000030</t>
           </r>
         </is>
       </c>
       <c r="C33" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. BADRUZZAMAN</t>
+            <t xml:space="preserve">MILTON CHAKMA</t>
           </r>
         </is>
       </c>
@@ -1040,14 +1040,14 @@
       <c r="B34" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000033</t>
+            <t xml:space="preserve">10000031</t>
           </r>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MOHAMMAD TOUHID SHARIF</t>
+            <t xml:space="preserve">MD. TOUSIF RAHMAN</t>
           </r>
         </is>
       </c>
@@ -1066,14 +1066,14 @@
       <c r="B35" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000034</t>
+            <t xml:space="preserve">10000032</t>
           </r>
         </is>
       </c>
       <c r="C35" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BENZIR AHMED</t>
+            <t xml:space="preserve">MD. BADRUZZAMAN</t>
           </r>
         </is>
       </c>
@@ -1092,14 +1092,14 @@
       <c r="B36" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000035</t>
+            <t xml:space="preserve">10000033</t>
           </r>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MOHAMMAD SHAKAWOTH HOSSIN</t>
+            <t xml:space="preserve">MOHAMMAD TOUHID SHARIF</t>
           </r>
         </is>
       </c>
@@ -1118,14 +1118,14 @@
       <c r="B37" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000036</t>
+            <t xml:space="preserve">10000034</t>
           </r>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MASUM RAZA</t>
+            <t xml:space="preserve">BENZIR AHMED</t>
           </r>
         </is>
       </c>
@@ -1144,14 +1144,14 @@
       <c r="B38" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000037</t>
+            <t xml:space="preserve">10000035</t>
           </r>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. SHARIFUL ISLAM</t>
+            <t xml:space="preserve">MOHAMMAD SHAKAWOTH HOSSIN</t>
           </r>
         </is>
       </c>
@@ -1170,14 +1170,14 @@
       <c r="B39" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000038</t>
+            <t xml:space="preserve">10000036</t>
           </r>
         </is>
       </c>
       <c r="C39" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD.ABDUR RAHIM</t>
+            <t xml:space="preserve">MASUM RAZA</t>
           </r>
         </is>
       </c>
@@ -1196,14 +1196,14 @@
       <c r="B40" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000039</t>
+            <t xml:space="preserve">10000037</t>
           </r>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. KHAIRUL ISLAM</t>
+            <t xml:space="preserve">MD. SHARIFUL ISLAM</t>
           </r>
         </is>
       </c>
@@ -1222,14 +1222,14 @@
       <c r="B41" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000040</t>
+            <t xml:space="preserve">10000038</t>
           </r>
         </is>
       </c>
       <c r="C41" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. AWALL ALI</t>
+            <t xml:space="preserve">MD.ABDUR RAHIM</t>
           </r>
         </is>
       </c>
@@ -1248,14 +1248,14 @@
       <c r="B42" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000041</t>
+            <t xml:space="preserve">10000039</t>
           </r>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD FARHAD HOSSAIN</t>
+            <t xml:space="preserve">MD. KHAIRUL ISLAM</t>
           </r>
         </is>
       </c>
@@ -1274,14 +1274,14 @@
       <c r="B43" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000042</t>
+            <t xml:space="preserve">10000040</t>
           </r>
         </is>
       </c>
       <c r="C43" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. TUHIN ALI</t>
+            <t xml:space="preserve">MD. AWALL ALI</t>
           </r>
         </is>
       </c>
@@ -1300,14 +1300,14 @@
       <c r="B44" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000043</t>
+            <t xml:space="preserve">10000041</t>
           </r>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. SAYDUL SLAM</t>
+            <t xml:space="preserve">MD FARHAD HOSSAIN</t>
           </r>
         </is>
       </c>
@@ -1326,14 +1326,14 @@
       <c r="B45" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000044</t>
+            <t xml:space="preserve">10000042</t>
           </r>
         </is>
       </c>
       <c r="C45" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">RASEL AHAMED RANA</t>
+            <t xml:space="preserve">MD. TUHIN ALI</t>
           </r>
         </is>
       </c>
@@ -1352,14 +1352,14 @@
       <c r="B46" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000045</t>
+            <t xml:space="preserve">10000043</t>
           </r>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MILLA AKTERI SEMUL</t>
+            <t xml:space="preserve">MD. SAYDUL SLAM</t>
           </r>
         </is>
       </c>
@@ -1378,14 +1378,14 @@
       <c r="B47" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000046</t>
+            <t xml:space="preserve">10000044</t>
           </r>
         </is>
       </c>
       <c r="C47" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD NAZMUL HOSSAIN</t>
+            <t xml:space="preserve">RASEL AHAMED RANA</t>
           </r>
         </is>
       </c>
@@ -1404,14 +1404,14 @@
       <c r="B48" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000047</t>
+            <t xml:space="preserve">10000045</t>
           </r>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. RASEL HOSSAIN</t>
+            <t xml:space="preserve">MILLA AKTERI SEMUL</t>
           </r>
         </is>
       </c>
@@ -1430,14 +1430,14 @@
       <c r="B49" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000048</t>
+            <t xml:space="preserve">10000046</t>
           </r>
         </is>
       </c>
       <c r="C49" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MOST. SWEETY SORKER</t>
+            <t xml:space="preserve">MD NAZMUL HOSSAIN</t>
           </r>
         </is>
       </c>
@@ -1456,14 +1456,14 @@
       <c r="B50" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000049</t>
+            <t xml:space="preserve">10000047</t>
           </r>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD.NAJMUL HAQUE</t>
+            <t xml:space="preserve">MD. RASEL HOSSAIN</t>
           </r>
         </is>
       </c>
@@ -1482,14 +1482,14 @@
       <c r="B51" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000050</t>
+            <t xml:space="preserve">10000048</t>
           </r>
         </is>
       </c>
       <c r="C51" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. MOSTAFIJUR RAHMAN</t>
+            <t xml:space="preserve">MOST. SWEETY SORKER</t>
           </r>
         </is>
       </c>
@@ -1508,14 +1508,14 @@
       <c r="B52" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000051</t>
+            <t xml:space="preserve">10000049</t>
           </r>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. NAHIDUL HAQUE</t>
+            <t xml:space="preserve">MD.NAJMUL HAQUE</t>
           </r>
         </is>
       </c>
@@ -1534,14 +1534,14 @@
       <c r="B53" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000052</t>
+            <t xml:space="preserve">10000050</t>
           </r>
         </is>
       </c>
       <c r="C53" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. ALAMGIR</t>
+            <t xml:space="preserve">MD. MOSTAFIJUR RAHMAN</t>
           </r>
         </is>
       </c>
@@ -1560,14 +1560,14 @@
       <c r="B54" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000053</t>
+            <t xml:space="preserve">10000051</t>
           </r>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MST. SHAPLA KHATUN</t>
+            <t xml:space="preserve">MD. NAHIDUL HAQUE</t>
           </r>
         </is>
       </c>
@@ -1586,14 +1586,14 @@
       <c r="B55" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000054</t>
+            <t xml:space="preserve">10000052</t>
           </r>
         </is>
       </c>
       <c r="C55" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. MAZHARUL ISLAM FAKIR</t>
+            <t xml:space="preserve">MD. ALAMGIR</t>
           </r>
         </is>
       </c>
@@ -1612,14 +1612,14 @@
       <c r="B56" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000055</t>
+            <t xml:space="preserve">10000053</t>
           </r>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">JOYONTO SHARMA</t>
+            <t xml:space="preserve">MST. SHAPLA KHATUN</t>
           </r>
         </is>
       </c>
@@ -1638,14 +1638,14 @@
       <c r="B57" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000056</t>
+            <t xml:space="preserve">10000054</t>
           </r>
         </is>
       </c>
       <c r="C57" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. JASHIM SHAIKH</t>
+            <t xml:space="preserve">MD. MAZHARUL ISLAM FAKIR</t>
           </r>
         </is>
       </c>
@@ -1664,14 +1664,14 @@
       <c r="B58" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000057</t>
+            <t xml:space="preserve">10000055</t>
           </r>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SATYAJIT ROY</t>
+            <t xml:space="preserve">JOYONTO SHARMA</t>
           </r>
         </is>
       </c>
@@ -1690,14 +1690,14 @@
       <c r="B59" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000058</t>
+            <t xml:space="preserve">10000056</t>
           </r>
         </is>
       </c>
       <c r="C59" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD ROKIBUL HASAN</t>
+            <t xml:space="preserve">MD. JASHIM SHAIKH</t>
           </r>
         </is>
       </c>
@@ -1716,14 +1716,14 @@
       <c r="B60" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000059</t>
+            <t xml:space="preserve">10000057</t>
           </r>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. MOHIUDDIN</t>
+            <t xml:space="preserve">SATYAJIT ROY</t>
           </r>
         </is>
       </c>
@@ -1742,14 +1742,14 @@
       <c r="B61" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000060</t>
+            <t xml:space="preserve">10000058</t>
           </r>
         </is>
       </c>
       <c r="C61" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD.MAHADI HASAN</t>
+            <t xml:space="preserve">MD ROKIBUL HASAN</t>
           </r>
         </is>
       </c>
@@ -1768,14 +1768,14 @@
       <c r="B62" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000061</t>
+            <t xml:space="preserve">10000059</t>
           </r>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">OBAIDULLAH</t>
+            <t xml:space="preserve">MD. MOHIUDDIN</t>
           </r>
         </is>
       </c>
@@ -1864,14 +1864,14 @@
       <c r="B68" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000062</t>
+            <t xml:space="preserve">10000060</t>
           </r>
         </is>
       </c>
       <c r="C68" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">LITAN DAS </t>
+            <t xml:space="preserve">MD.MAHADI HASAN</t>
           </r>
         </is>
       </c>
@@ -1890,14 +1890,14 @@
       <c r="B69" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000063</t>
+            <t xml:space="preserve">10000061</t>
           </r>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">JUBAIYR</t>
+            <t xml:space="preserve">OBAIDULLAH</t>
           </r>
         </is>
       </c>
@@ -1916,14 +1916,14 @@
       <c r="B70" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000064</t>
+            <t xml:space="preserve">10000062</t>
           </r>
         </is>
       </c>
       <c r="C70" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. NAZMUL HUDA</t>
+            <t xml:space="preserve">LITAN DAS </t>
           </r>
         </is>
       </c>
@@ -1942,14 +1942,14 @@
       <c r="B71" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000065</t>
+            <t xml:space="preserve">10000063</t>
           </r>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD.ARIFUR RAHMAN</t>
+            <t xml:space="preserve">JUBAIYR</t>
           </r>
         </is>
       </c>
@@ -1968,14 +1968,14 @@
       <c r="B72" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000066</t>
+            <t xml:space="preserve">10000064</t>
           </r>
         </is>
       </c>
       <c r="C72" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. ABU RAIHAN</t>
+            <t xml:space="preserve">MD. NAZMUL HUDA</t>
           </r>
         </is>
       </c>
@@ -1994,14 +1994,14 @@
       <c r="B73" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000067</t>
+            <t xml:space="preserve">10000065</t>
           </r>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. MEJBAH UDDIN</t>
+            <t xml:space="preserve">MD.ARIFUR RAHMAN</t>
           </r>
         </is>
       </c>
@@ -2020,14 +2020,14 @@
       <c r="B74" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000068</t>
+            <t xml:space="preserve">10000066</t>
           </r>
         </is>
       </c>
       <c r="C74" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. SADAR UDDIN</t>
+            <t xml:space="preserve">MD. ABU RAIHAN</t>
           </r>
         </is>
       </c>
@@ -2046,14 +2046,14 @@
       <c r="B75" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000069</t>
+            <t xml:space="preserve">10000067</t>
           </r>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">TASLIMA AKTER</t>
+            <t xml:space="preserve">MD. MEJBAH UDDIN</t>
           </r>
         </is>
       </c>
@@ -2072,14 +2072,14 @@
       <c r="B76" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000070</t>
+            <t xml:space="preserve">10000068</t>
           </r>
         </is>
       </c>
       <c r="C76" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD.MAHFOOZUR RAHMAN</t>
+            <t xml:space="preserve">MD. SADAR UDDIN</t>
           </r>
         </is>
       </c>
@@ -2098,14 +2098,14 @@
       <c r="B77" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000071</t>
+            <t xml:space="preserve">10000069</t>
           </r>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. MIZANUR RAHAMAN</t>
+            <t xml:space="preserve">TASLIMA AKTER</t>
           </r>
         </is>
       </c>
@@ -2124,14 +2124,14 @@
       <c r="B78" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000072</t>
+            <t xml:space="preserve">10000070</t>
           </r>
         </is>
       </c>
       <c r="C78" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">IMTIAZ ABEDIN BHUIYAN</t>
+            <t xml:space="preserve">MD.MAHFOOZUR RAHMAN</t>
           </r>
         </is>
       </c>
@@ -2150,14 +2150,14 @@
       <c r="B79" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000073</t>
+            <t xml:space="preserve">10000071</t>
           </r>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">S.M. BIPUL RAYHAN</t>
+            <t xml:space="preserve">MD. MIZANUR RAHAMAN</t>
           </r>
         </is>
       </c>
@@ -2176,14 +2176,14 @@
       <c r="B80" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000074</t>
+            <t xml:space="preserve">10000072</t>
           </r>
         </is>
       </c>
       <c r="C80" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD IMRAN HOSSAIN</t>
+            <t xml:space="preserve">IMTIAZ ABEDIN BHUIYAN</t>
           </r>
         </is>
       </c>
@@ -2202,14 +2202,14 @@
       <c r="B81" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000075</t>
+            <t xml:space="preserve">10000073</t>
           </r>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. FARUQUE HOSSAIN </t>
+            <t xml:space="preserve">S.M. BIPUL RAYHAN</t>
           </r>
         </is>
       </c>
@@ -2228,14 +2228,14 @@
       <c r="B82" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000076</t>
+            <t xml:space="preserve">10000074</t>
           </r>
         </is>
       </c>
       <c r="C82" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">TAMANNA ISRAT SUROVI</t>
+            <t xml:space="preserve">MD IMRAN HOSSAIN</t>
           </r>
         </is>
       </c>
@@ -2254,14 +2254,14 @@
       <c r="B83" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000077</t>
+            <t xml:space="preserve">10000075</t>
           </r>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve"> ARAFATÃ‚Â MIA</t>
+            <t xml:space="preserve">MD. FARUQUE HOSSAIN </t>
           </r>
         </is>
       </c>
@@ -2280,14 +2280,14 @@
       <c r="B84" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000078</t>
+            <t xml:space="preserve">10000076</t>
           </r>
         </is>
       </c>
       <c r="C84" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MUHAMMAD SAIFUR RAHMAN</t>
+            <t xml:space="preserve">TAMANNA ISRAT SUROVI</t>
           </r>
         </is>
       </c>
@@ -2306,14 +2306,14 @@
       <c r="B85" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000079</t>
+            <t xml:space="preserve">10000077</t>
           </r>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MOHAMMED SHARIFUR RAHMAN</t>
+            <t xml:space="preserve"> ARAFATÃ‚Â MIA</t>
           </r>
         </is>
       </c>
@@ -2332,14 +2332,14 @@
       <c r="B86" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000080</t>
+            <t xml:space="preserve">10000078</t>
           </r>
         </is>
       </c>
       <c r="C86" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. LIAKAT HOSSAIN</t>
+            <t xml:space="preserve">MUHAMMAD SAIFUR RAHMAN</t>
           </r>
         </is>
       </c>
@@ -2358,14 +2358,14 @@
       <c r="B87" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000081</t>
+            <t xml:space="preserve">10000079</t>
           </r>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ABDULLA AL MAMUN</t>
+            <t xml:space="preserve">MOHAMMED SHARIFUR RAHMAN</t>
           </r>
         </is>
       </c>
@@ -2384,14 +2384,14 @@
       <c r="B88" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000082</t>
+            <t xml:space="preserve">10000080</t>
           </r>
         </is>
       </c>
       <c r="C88" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BIJOY CHANDRA BARMAN</t>
+            <t xml:space="preserve">MD. LIAKAT HOSSAIN</t>
           </r>
         </is>
       </c>
@@ -2410,14 +2410,14 @@
       <c r="B89" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000083</t>
+            <t xml:space="preserve">10000081</t>
           </r>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. GOLAM RABBI</t>
+            <t xml:space="preserve">ABDULLA AL MAMUN</t>
           </r>
         </is>
       </c>
@@ -2436,14 +2436,14 @@
       <c r="B90" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000084</t>
+            <t xml:space="preserve">10000082</t>
           </r>
         </is>
       </c>
       <c r="C90" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">NEWTON DAS</t>
+            <t xml:space="preserve">BIJOY CHANDRA BARMAN</t>
           </r>
         </is>
       </c>
@@ -2462,14 +2462,14 @@
       <c r="B91" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000085</t>
+            <t xml:space="preserve">10000083</t>
           </r>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ISMAYEL HOSSAIN</t>
+            <t xml:space="preserve">MD. GOLAM RABBI</t>
           </r>
         </is>
       </c>
@@ -2488,14 +2488,14 @@
       <c r="B92" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000086</t>
+            <t xml:space="preserve">10000084</t>
           </r>
         </is>
       </c>
       <c r="C92" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD.SAKLINE RABBI</t>
+            <t xml:space="preserve">NEWTON DAS</t>
           </r>
         </is>
       </c>
@@ -2514,14 +2514,14 @@
       <c r="B93" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000087</t>
+            <t xml:space="preserve">10000085</t>
           </r>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. HUMAWUN KABIR</t>
+            <t xml:space="preserve">ISMAYEL HOSSAIN</t>
           </r>
         </is>
       </c>
@@ -2540,14 +2540,14 @@
       <c r="B94" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000088</t>
+            <t xml:space="preserve">10000086</t>
           </r>
         </is>
       </c>
       <c r="C94" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">VHAJON KUMER DAS</t>
+            <t xml:space="preserve">MD.SAKLINE RABBI</t>
           </r>
         </is>
       </c>
@@ -2566,14 +2566,14 @@
       <c r="B95" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000089</t>
+            <t xml:space="preserve">10000087</t>
           </r>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">PROBHAS ROY</t>
+            <t xml:space="preserve">MD. HUMAWUN KABIR</t>
           </r>
         </is>
       </c>
@@ -2592,14 +2592,14 @@
       <c r="B96" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000090</t>
+            <t xml:space="preserve">10000088</t>
           </r>
         </is>
       </c>
       <c r="C96" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD.JAHANGIR ALAM</t>
+            <t xml:space="preserve">VHAJON KUMER DAS</t>
           </r>
         </is>
       </c>
@@ -2618,14 +2618,14 @@
       <c r="B97" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000091</t>
+            <t xml:space="preserve">10000089</t>
           </r>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD.SHAMIUL HASAN</t>
+            <t xml:space="preserve">PROBHAS ROY</t>
           </r>
         </is>
       </c>
@@ -2644,14 +2644,14 @@
       <c r="B98" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000092</t>
+            <t xml:space="preserve">10000090</t>
           </r>
         </is>
       </c>
       <c r="C98" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. JAHIRUL ISLAM</t>
+            <t xml:space="preserve">MD.JAHANGIR ALAM</t>
           </r>
         </is>
       </c>
@@ -2670,14 +2670,14 @@
       <c r="B99" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000093</t>
+            <t xml:space="preserve">10000091</t>
           </r>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. FIROZZAMAN</t>
+            <t xml:space="preserve">MD.SHAMIUL HASAN</t>
           </r>
         </is>
       </c>
@@ -2696,14 +2696,14 @@
       <c r="B100" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000094</t>
+            <t xml:space="preserve">10000092</t>
           </r>
         </is>
       </c>
       <c r="C100" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD SHAHABAT AKRAM</t>
+            <t xml:space="preserve">MD. JAHIRUL ISLAM</t>
           </r>
         </is>
       </c>
@@ -2722,14 +2722,14 @@
       <c r="B101" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000095</t>
+            <t xml:space="preserve">10000093</t>
           </r>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. AZIM UDDIN</t>
+            <t xml:space="preserve">MD. FIROZZAMAN</t>
           </r>
         </is>
       </c>
@@ -2748,14 +2748,14 @@
       <c r="B102" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000096</t>
+            <t xml:space="preserve">10000094</t>
           </r>
         </is>
       </c>
       <c r="C102" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">RAFIKA NASRIN</t>
+            <t xml:space="preserve">MD SHAHABAT AKRAM</t>
           </r>
         </is>
       </c>
@@ -2774,14 +2774,14 @@
       <c r="B103" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000097</t>
+            <t xml:space="preserve">10000095</t>
           </r>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SAGOR CHONDRA ZAIDAR SUBAS</t>
+            <t xml:space="preserve">MD. AZIM UDDIN</t>
           </r>
         </is>
       </c>
@@ -2800,14 +2800,14 @@
       <c r="B104" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000098</t>
+            <t xml:space="preserve">10000096</t>
           </r>
         </is>
       </c>
       <c r="C104" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. SAKIB ALAM</t>
+            <t xml:space="preserve">RAFIKA NASRIN</t>
           </r>
         </is>
       </c>
@@ -2826,14 +2826,14 @@
       <c r="B105" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000099</t>
+            <t xml:space="preserve">10000097</t>
           </r>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. ABDUR RAZZAK</t>
+            <t xml:space="preserve">SAGOR CHONDRA ZAIDAR SUBAS</t>
           </r>
         </is>
       </c>
@@ -2852,14 +2852,14 @@
       <c r="B106" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000100</t>
+            <t xml:space="preserve">10000098</t>
           </r>
         </is>
       </c>
       <c r="C106" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD.ARIFUR RAHMAN</t>
+            <t xml:space="preserve">MD. SAKIB ALAM</t>
           </r>
         </is>
       </c>
@@ -2878,14 +2878,14 @@
       <c r="B107" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000101</t>
+            <t xml:space="preserve">10000099</t>
           </r>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. HAFIJUR RAHAMAN</t>
+            <t xml:space="preserve">MD. ABDUR RAZZAK</t>
           </r>
         </is>
       </c>
@@ -2904,14 +2904,14 @@
       <c r="B108" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10000102</t>
+            <t xml:space="preserve">10000100</t>
           </r>
         </is>
       </c>
       <c r="C108" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MD. MHABUBUR RHAMAN</t>
+            <t xml:space="preserve">MD.ARIFUR RAHMAN</t>
           </r>
         </is>
       </c>
